--- a/code/table_creation_helper.xlsx
+++ b/code/table_creation_helper.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\git_repos\interactive_storytelling\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA69DE08-98D9-4B90-8C14-0CF76E5F678D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7862BCB-1501-4A7C-9F06-6ECE80ED9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDE623E1-C377-443C-B515-ADCD6E6DC241}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDE623E1-C377-443C-B515-ADCD6E6DC241}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83" uniqueCount="76">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
   <si>
     <t>mobility_period</t>
   </si>
@@ -262,6 +262,168 @@
   </si>
   <si>
     <t>create table trends (</t>
+  </si>
+  <si>
+    <t>Current_Residence</t>
+  </si>
+  <si>
+    <t>Alabama</t>
+  </si>
+  <si>
+    <t>Alaska</t>
+  </si>
+  <si>
+    <t>Arizona</t>
+  </si>
+  <si>
+    <t>Arkansas</t>
+  </si>
+  <si>
+    <t>California</t>
+  </si>
+  <si>
+    <t>Colorado</t>
+  </si>
+  <si>
+    <t>Connecticut</t>
+  </si>
+  <si>
+    <t>Delaware</t>
+  </si>
+  <si>
+    <t>Florida</t>
+  </si>
+  <si>
+    <t>Georgia</t>
+  </si>
+  <si>
+    <t>Hawaii</t>
+  </si>
+  <si>
+    <t>Idaho</t>
+  </si>
+  <si>
+    <t>Illinois</t>
+  </si>
+  <si>
+    <t>Indiana</t>
+  </si>
+  <si>
+    <t>Iowa</t>
+  </si>
+  <si>
+    <t>Kansas</t>
+  </si>
+  <si>
+    <t>Kentucky</t>
+  </si>
+  <si>
+    <t>Louisiana</t>
+  </si>
+  <si>
+    <t>Maine</t>
+  </si>
+  <si>
+    <t>Maryland</t>
+  </si>
+  <si>
+    <t>Massachusetts</t>
+  </si>
+  <si>
+    <t>Michigan</t>
+  </si>
+  <si>
+    <t>Minnesota</t>
+  </si>
+  <si>
+    <t>Mississippi</t>
+  </si>
+  <si>
+    <t>Missouri</t>
+  </si>
+  <si>
+    <t>Montana</t>
+  </si>
+  <si>
+    <t>Nebraska</t>
+  </si>
+  <si>
+    <t>Nevada</t>
+  </si>
+  <si>
+    <t>Ohio</t>
+  </si>
+  <si>
+    <t>Oklahoma</t>
+  </si>
+  <si>
+    <t>Oregon</t>
+  </si>
+  <si>
+    <t>Pennsylvania</t>
+  </si>
+  <si>
+    <t>Tennessee</t>
+  </si>
+  <si>
+    <t>Texas</t>
+  </si>
+  <si>
+    <t>Utah</t>
+  </si>
+  <si>
+    <t>Vermont</t>
+  </si>
+  <si>
+    <t>Virginia</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>Wisconsin</t>
+  </si>
+  <si>
+    <t>Wyoming</t>
+  </si>
+  <si>
+    <t>New_Hampshire</t>
+  </si>
+  <si>
+    <t>New_Jersey</t>
+  </si>
+  <si>
+    <t>New_Mexico</t>
+  </si>
+  <si>
+    <t>New_York</t>
+  </si>
+  <si>
+    <t>North_Carolina</t>
+  </si>
+  <si>
+    <t>North_Dakota</t>
+  </si>
+  <si>
+    <t>Puerto_Rico</t>
+  </si>
+  <si>
+    <t>Rhode_Island</t>
+  </si>
+  <si>
+    <t>South_Carolina</t>
+  </si>
+  <si>
+    <t>South_Dakota</t>
+  </si>
+  <si>
+    <t>West_Virginia</t>
+  </si>
+  <si>
+    <t>create table state_to_state (</t>
+  </si>
+  <si>
+    <t>District_of_Columbia</t>
   </si>
 </sst>
 </file>
@@ -613,10 +775,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0858-58C6-4FCF-9C60-EE450699A1A9}">
-  <dimension ref="A1:K44"/>
+  <dimension ref="A1:N54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="H31" sqref="H31"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="M12" sqref="M12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -628,9 +790,11 @@
     <col min="7" max="7" width="38.5703125" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="38.5703125" customWidth="1"/>
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -643,8 +807,11 @@
       <c r="K1" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="N1" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -673,8 +840,15 @@
         <f>J2&amp;" VARCHAR(30) NOT NULL,"</f>
         <v>mobility_period VARCHAR(30) NOT NULL,</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M2" t="s">
+        <v>76</v>
+      </c>
+      <c r="N2" t="str">
+        <f>LOWER(M2)&amp;" VARCHAR(30) NOT NULL,"</f>
+        <v>current_residence VARCHAR(30) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -700,11 +874,18 @@
         <v>65</v>
       </c>
       <c r="K3" t="str">
-        <f t="shared" ref="K3:K7" si="0">IF(RIGHT(J3,4)="_per",J3&amp;" REAL,",J3&amp;" INT,")</f>
+        <f t="shared" ref="K3:K6" si="0">IF(RIGHT(J3,4)="_per",J3&amp;" REAL,",J3&amp;" INT,")</f>
         <v>period_duration_years INT,</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M3" t="s">
+        <v>77</v>
+      </c>
+      <c r="N3" t="str">
+        <f>LOWER(M3)&amp;" int,"</f>
+        <v>alabama int,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -733,8 +914,15 @@
         <f t="shared" ref="K4:K5" si="4">J4&amp;" VARCHAR(30) NOT NULL,"</f>
         <v>origin VARCHAR(30) NOT NULL,</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M4" t="s">
+        <v>78</v>
+      </c>
+      <c r="N4" t="str">
+        <f t="shared" ref="N4:N54" si="5">LOWER(M4)&amp;" int,"</f>
+        <v>alaska int,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -763,8 +951,15 @@
         <f t="shared" si="4"/>
         <v>destination VARCHAR(30) NOT NULL,</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M5" t="s">
+        <v>79</v>
+      </c>
+      <c r="N5" t="str">
+        <f t="shared" si="5"/>
+        <v>arizona int,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -793,8 +988,15 @@
         <f t="shared" si="0"/>
         <v>migration INT,</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M6" t="s">
+        <v>80</v>
+      </c>
+      <c r="N6" t="str">
+        <f t="shared" si="5"/>
+        <v>arkansas int,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -823,8 +1025,15 @@
         <f>J7&amp;" VARCHAR(30) NOT NULL,"</f>
         <v>source VARCHAR(30) NOT NULL,</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M7" t="s">
+        <v>81</v>
+      </c>
+      <c r="N7" t="str">
+        <f t="shared" si="5"/>
+        <v>california int,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -846,8 +1055,15 @@
         <f t="shared" si="3"/>
         <v>movers_total_new_county_per REAL,</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M8" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" t="str">
+        <f t="shared" si="5"/>
+        <v>colorado int,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -869,8 +1085,15 @@
         <f t="shared" si="3"/>
         <v>movers_new_county_under_50miles_per REAL,</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M9" t="s">
+        <v>83</v>
+      </c>
+      <c r="N9" t="str">
+        <f t="shared" si="5"/>
+        <v>connecticut int,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -892,8 +1115,15 @@
         <f t="shared" si="3"/>
         <v>movers_new_county_50_199miles_per REAL,</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M10" t="s">
+        <v>84</v>
+      </c>
+      <c r="N10" t="str">
+        <f t="shared" si="5"/>
+        <v>delaware int,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -915,8 +1145,15 @@
         <f t="shared" si="3"/>
         <v>movers_new_county_200_499miles_per REAL,</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M11" t="s">
+        <v>129</v>
+      </c>
+      <c r="N11" t="str">
+        <f t="shared" si="5"/>
+        <v>district_of_columbia int,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -938,8 +1175,15 @@
         <f t="shared" si="3"/>
         <v>movers_new_county_over_500miles_per REAL,</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M12" t="s">
+        <v>85</v>
+      </c>
+      <c r="N12" t="str">
+        <f t="shared" si="5"/>
+        <v>florida int,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -954,8 +1198,15 @@
         <f t="shared" si="2"/>
         <v>housing_upsize INT,</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M13" t="s">
+        <v>86</v>
+      </c>
+      <c r="N13" t="str">
+        <f t="shared" si="5"/>
+        <v>georgia int,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -970,8 +1221,15 @@
         <f t="shared" si="2"/>
         <v>housing_better_neighborhood INT,</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M14" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" t="str">
+        <f t="shared" si="5"/>
+        <v>hawaii int,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -986,8 +1244,15 @@
         <f t="shared" si="2"/>
         <v>housing_cheaper INT,</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="M15" t="s">
+        <v>88</v>
+      </c>
+      <c r="N15" t="str">
+        <f t="shared" si="5"/>
+        <v>idaho int,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1002,8 +1267,15 @@
         <f t="shared" si="2"/>
         <v>housing_eviction INT,</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M16" t="s">
+        <v>89</v>
+      </c>
+      <c r="N16" t="str">
+        <f t="shared" si="5"/>
+        <v>illinois int,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1018,8 +1290,15 @@
         <f t="shared" si="2"/>
         <v>housing_other INT,</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M17" t="s">
+        <v>90</v>
+      </c>
+      <c r="N17" t="str">
+        <f t="shared" si="5"/>
+        <v>indiana int,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1034,8 +1313,15 @@
         <f t="shared" si="2"/>
         <v>other_relationship INT,</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M18" t="s">
+        <v>91</v>
+      </c>
+      <c r="N18" t="str">
+        <f t="shared" si="5"/>
+        <v>iowa int,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1050,8 +1336,15 @@
         <f t="shared" si="2"/>
         <v>other_college INT,</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M19" t="s">
+        <v>92</v>
+      </c>
+      <c r="N19" t="str">
+        <f t="shared" si="5"/>
+        <v>kansas int,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1066,8 +1359,15 @@
         <f t="shared" si="2"/>
         <v>other_climate INT,</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M20" t="s">
+        <v>93</v>
+      </c>
+      <c r="N20" t="str">
+        <f t="shared" si="5"/>
+        <v>kentucky int,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>34</v>
       </c>
@@ -1075,8 +1375,15 @@
         <f t="shared" si="2"/>
         <v>other_health INT,</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M21" t="s">
+        <v>94</v>
+      </c>
+      <c r="N21" t="str">
+        <f t="shared" si="5"/>
+        <v>louisiana int,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>35</v>
       </c>
@@ -1084,8 +1391,15 @@
         <f t="shared" si="2"/>
         <v>other_natural_disaster INT,</v>
       </c>
-    </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M22" t="s">
+        <v>95</v>
+      </c>
+      <c r="N22" t="str">
+        <f t="shared" si="5"/>
+        <v>maine int,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>36</v>
       </c>
@@ -1093,8 +1407,15 @@
         <f t="shared" si="2"/>
         <v>other_other INT,</v>
       </c>
-    </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M23" t="s">
+        <v>96</v>
+      </c>
+      <c r="N23" t="str">
+        <f t="shared" si="5"/>
+        <v>maryland int,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>10</v>
       </c>
@@ -1102,8 +1423,15 @@
         <f t="shared" si="2"/>
         <v>movers_total_per REAL,</v>
       </c>
-    </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M24" t="s">
+        <v>97</v>
+      </c>
+      <c r="N24" t="str">
+        <f t="shared" si="5"/>
+        <v>massachusetts int,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -1111,8 +1439,15 @@
         <f t="shared" si="2"/>
         <v>family_marital_status_change_per REAL,</v>
       </c>
-    </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M25" t="s">
+        <v>98</v>
+      </c>
+      <c r="N25" t="str">
+        <f t="shared" si="5"/>
+        <v>michigan int,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>38</v>
       </c>
@@ -1120,8 +1455,15 @@
         <f t="shared" si="2"/>
         <v>family_establish_own_household_per REAL,</v>
       </c>
-    </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M26" t="s">
+        <v>99</v>
+      </c>
+      <c r="N26" t="str">
+        <f t="shared" si="5"/>
+        <v>minnesota int,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>39</v>
       </c>
@@ -1129,8 +1471,15 @@
         <f t="shared" si="2"/>
         <v>family_other_per REAL,</v>
       </c>
-    </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M27" t="s">
+        <v>100</v>
+      </c>
+      <c r="N27" t="str">
+        <f t="shared" si="5"/>
+        <v>mississippi int,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>40</v>
       </c>
@@ -1138,8 +1487,15 @@
         <f t="shared" si="2"/>
         <v>job_new_per REAL,</v>
       </c>
-    </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M28" t="s">
+        <v>101</v>
+      </c>
+      <c r="N28" t="str">
+        <f t="shared" si="5"/>
+        <v>missouri int,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>41</v>
       </c>
@@ -1147,8 +1503,15 @@
         <f t="shared" si="2"/>
         <v>job_seeking_per REAL,</v>
       </c>
-    </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M29" t="s">
+        <v>102</v>
+      </c>
+      <c r="N29" t="str">
+        <f t="shared" si="5"/>
+        <v>montana int,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>42</v>
       </c>
@@ -1156,8 +1519,15 @@
         <f t="shared" si="2"/>
         <v>job_better_commute_per REAL,</v>
       </c>
-    </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M30" t="s">
+        <v>103</v>
+      </c>
+      <c r="N30" t="str">
+        <f t="shared" si="5"/>
+        <v>nebraska int,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -1165,8 +1535,15 @@
         <f t="shared" si="2"/>
         <v>job_retired_per REAL,</v>
       </c>
-    </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="M31" t="s">
+        <v>104</v>
+      </c>
+      <c r="N31" t="str">
+        <f t="shared" si="5"/>
+        <v>nevada int,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>44</v>
       </c>
@@ -1174,8 +1551,15 @@
         <f t="shared" si="2"/>
         <v>job_other_per REAL,</v>
       </c>
-    </row>
-    <row r="33" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M32" t="s">
+        <v>117</v>
+      </c>
+      <c r="N32" t="str">
+        <f t="shared" si="5"/>
+        <v>new_hampshire int,</v>
+      </c>
+    </row>
+    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -1183,8 +1567,15 @@
         <f t="shared" si="2"/>
         <v>housing_ownership_per REAL,</v>
       </c>
-    </row>
-    <row r="34" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M33" t="s">
+        <v>118</v>
+      </c>
+      <c r="N33" t="str">
+        <f t="shared" si="5"/>
+        <v>new_jersey int,</v>
+      </c>
+    </row>
+    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>46</v>
       </c>
@@ -1192,8 +1583,15 @@
         <f t="shared" si="2"/>
         <v>housing_upsize_per REAL,</v>
       </c>
-    </row>
-    <row r="35" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M34" t="s">
+        <v>119</v>
+      </c>
+      <c r="N34" t="str">
+        <f t="shared" si="5"/>
+        <v>new_mexico int,</v>
+      </c>
+    </row>
+    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>47</v>
       </c>
@@ -1201,8 +1599,15 @@
         <f t="shared" si="2"/>
         <v>housing_better_neighborhood_per REAL,</v>
       </c>
-    </row>
-    <row r="36" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M35" t="s">
+        <v>120</v>
+      </c>
+      <c r="N35" t="str">
+        <f t="shared" si="5"/>
+        <v>new_york int,</v>
+      </c>
+    </row>
+    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>48</v>
       </c>
@@ -1210,8 +1615,15 @@
         <f t="shared" si="2"/>
         <v>housing_cheaper_per REAL,</v>
       </c>
-    </row>
-    <row r="37" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M36" t="s">
+        <v>121</v>
+      </c>
+      <c r="N36" t="str">
+        <f t="shared" si="5"/>
+        <v>north_carolina int,</v>
+      </c>
+    </row>
+    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>49</v>
       </c>
@@ -1219,8 +1631,15 @@
         <f t="shared" si="2"/>
         <v>housing_eviction_per REAL,</v>
       </c>
-    </row>
-    <row r="38" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M37" t="s">
+        <v>122</v>
+      </c>
+      <c r="N37" t="str">
+        <f t="shared" si="5"/>
+        <v>north_dakota int,</v>
+      </c>
+    </row>
+    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>50</v>
       </c>
@@ -1228,8 +1647,15 @@
         <f t="shared" si="2"/>
         <v>housing_other_per REAL,</v>
       </c>
-    </row>
-    <row r="39" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M38" t="s">
+        <v>105</v>
+      </c>
+      <c r="N38" t="str">
+        <f t="shared" si="5"/>
+        <v>ohio int,</v>
+      </c>
+    </row>
+    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>51</v>
       </c>
@@ -1237,8 +1663,15 @@
         <f t="shared" si="2"/>
         <v>other_relationship_per REAL,</v>
       </c>
-    </row>
-    <row r="40" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M39" t="s">
+        <v>106</v>
+      </c>
+      <c r="N39" t="str">
+        <f t="shared" si="5"/>
+        <v>oklahoma int,</v>
+      </c>
+    </row>
+    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>52</v>
       </c>
@@ -1246,8 +1679,15 @@
         <f t="shared" si="2"/>
         <v>other_college_per REAL,</v>
       </c>
-    </row>
-    <row r="41" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M40" t="s">
+        <v>107</v>
+      </c>
+      <c r="N40" t="str">
+        <f t="shared" si="5"/>
+        <v>oregon int,</v>
+      </c>
+    </row>
+    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>53</v>
       </c>
@@ -1255,8 +1695,15 @@
         <f t="shared" si="2"/>
         <v>other_climate_per REAL,</v>
       </c>
-    </row>
-    <row r="42" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M41" t="s">
+        <v>108</v>
+      </c>
+      <c r="N41" t="str">
+        <f t="shared" si="5"/>
+        <v>pennsylvania int,</v>
+      </c>
+    </row>
+    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>54</v>
       </c>
@@ -1264,8 +1711,15 @@
         <f t="shared" si="2"/>
         <v>other_health_per REAL,</v>
       </c>
-    </row>
-    <row r="43" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M42" t="s">
+        <v>123</v>
+      </c>
+      <c r="N42" t="str">
+        <f t="shared" si="5"/>
+        <v>puerto_rico int,</v>
+      </c>
+    </row>
+    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>55</v>
       </c>
@@ -1273,14 +1727,118 @@
         <f t="shared" si="2"/>
         <v>other_natural_disaster_per REAL,</v>
       </c>
-    </row>
-    <row r="44" spans="4:5" x14ac:dyDescent="0.25">
+      <c r="M43" t="s">
+        <v>124</v>
+      </c>
+      <c r="N43" t="str">
+        <f t="shared" si="5"/>
+        <v>rhode_island int,</v>
+      </c>
+    </row>
+    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>56</v>
       </c>
       <c r="E44" t="str">
         <f t="shared" si="2"/>
         <v>other_other_per REAL,</v>
+      </c>
+      <c r="M44" t="s">
+        <v>125</v>
+      </c>
+      <c r="N44" t="str">
+        <f t="shared" si="5"/>
+        <v>south_carolina int,</v>
+      </c>
+    </row>
+    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M45" t="s">
+        <v>126</v>
+      </c>
+      <c r="N45" t="str">
+        <f t="shared" si="5"/>
+        <v>south_dakota int,</v>
+      </c>
+    </row>
+    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M46" t="s">
+        <v>109</v>
+      </c>
+      <c r="N46" t="str">
+        <f t="shared" si="5"/>
+        <v>tennessee int,</v>
+      </c>
+    </row>
+    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M47" t="s">
+        <v>110</v>
+      </c>
+      <c r="N47" t="str">
+        <f t="shared" si="5"/>
+        <v>texas int,</v>
+      </c>
+    </row>
+    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="M48" t="s">
+        <v>111</v>
+      </c>
+      <c r="N48" t="str">
+        <f t="shared" si="5"/>
+        <v>utah int,</v>
+      </c>
+    </row>
+    <row r="49" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M49" t="s">
+        <v>112</v>
+      </c>
+      <c r="N49" t="str">
+        <f t="shared" si="5"/>
+        <v>vermont int,</v>
+      </c>
+    </row>
+    <row r="50" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M50" t="s">
+        <v>113</v>
+      </c>
+      <c r="N50" t="str">
+        <f t="shared" si="5"/>
+        <v>virginia int,</v>
+      </c>
+    </row>
+    <row r="51" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M51" t="s">
+        <v>114</v>
+      </c>
+      <c r="N51" t="str">
+        <f t="shared" si="5"/>
+        <v>washington int,</v>
+      </c>
+    </row>
+    <row r="52" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M52" t="s">
+        <v>127</v>
+      </c>
+      <c r="N52" t="str">
+        <f t="shared" si="5"/>
+        <v>west_virginia int,</v>
+      </c>
+    </row>
+    <row r="53" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M53" t="s">
+        <v>115</v>
+      </c>
+      <c r="N53" t="str">
+        <f t="shared" si="5"/>
+        <v>wisconsin int,</v>
+      </c>
+    </row>
+    <row r="54" spans="13:14" x14ac:dyDescent="0.25">
+      <c r="M54" t="s">
+        <v>116</v>
+      </c>
+      <c r="N54" t="str">
+        <f t="shared" si="5"/>
+        <v>wyoming int,</v>
       </c>
     </row>
   </sheetData>

--- a/code/table_creation_helper.xlsx
+++ b/code/table_creation_helper.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pearl\git_repos\interactive_storytelling\code\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7862BCB-1501-4A7C-9F06-6ECE80ED9D85}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{72705B19-72ED-447A-8945-97DA57AD4D88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{FDE623E1-C377-443C-B515-ADCD6E6DC241}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="184" uniqueCount="133">
   <si>
     <t>mobility_period</t>
   </si>
@@ -424,6 +424,15 @@
   </si>
   <si>
     <t>District_of_Columbia</t>
+  </si>
+  <si>
+    <t>mobility_start</t>
+  </si>
+  <si>
+    <t>family_comb_per</t>
+  </si>
+  <si>
+    <t>Job_comb_per</t>
   </si>
 </sst>
 </file>
@@ -775,10 +784,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DB4E0858-58C6-4FCF-9C60-EE450699A1A9}">
-  <dimension ref="A1:N54"/>
+  <dimension ref="A1:Q54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
-      <selection activeCell="M12" sqref="M12"/>
+    <sheetView tabSelected="1" topLeftCell="H12" workbookViewId="0">
+      <selection activeCell="Q1" sqref="Q1:Q47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -792,9 +801,12 @@
     <col min="10" max="10" width="21.5703125" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="38.42578125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="40.28515625" bestFit="1" customWidth="1"/>
+    <col min="16" max="16" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="41.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
         <v>70</v>
       </c>
@@ -810,8 +822,11 @@
       <c r="N1" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -847,8 +862,15 @@
         <f>LOWER(M2)&amp;" VARCHAR(30) NOT NULL,"</f>
         <v>current_residence VARCHAR(30) NOT NULL,</v>
       </c>
-    </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P2" t="s">
+        <v>130</v>
+      </c>
+      <c r="Q2" t="str">
+        <f>IF(RIGHT(P2,4)="_per",P2&amp;" REAL,",P2&amp;" INT,")</f>
+        <v>mobility_start INT,</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -884,8 +906,15 @@
         <f>LOWER(M3)&amp;" int,"</f>
         <v>alabama int,</v>
       </c>
-    </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P3" t="s">
+        <v>0</v>
+      </c>
+      <c r="Q3" t="str">
+        <f>P3&amp;" VARCHAR(30) NOT NULL,"</f>
+        <v>mobility_period VARCHAR(30) NOT NULL,</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -921,8 +950,15 @@
         <f t="shared" ref="N4:N54" si="5">LOWER(M4)&amp;" int,"</f>
         <v>alaska int,</v>
       </c>
-    </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P4" t="s">
+        <v>2</v>
+      </c>
+      <c r="Q4" t="str">
+        <f>IF(RIGHT(P4,4)="_per",P4&amp;" REAL,",P4&amp;" INT,")</f>
+        <v>movers_total INT,</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>2</v>
       </c>
@@ -958,8 +994,15 @@
         <f t="shared" si="5"/>
         <v>arizona int,</v>
       </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P5" t="s">
+        <v>17</v>
+      </c>
+      <c r="Q5" t="str">
+        <f t="shared" ref="Q4:Q48" si="6">IF(RIGHT(P5,4)="_per",P5&amp;" REAL,",P5&amp;" INT,")</f>
+        <v>family_marital_status_change INT,</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>3</v>
       </c>
@@ -995,8 +1038,15 @@
         <f t="shared" si="5"/>
         <v>arkansas int,</v>
       </c>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q6" t="str">
+        <f t="shared" si="6"/>
+        <v>family_establish_own_household INT,</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>4</v>
       </c>
@@ -1032,8 +1082,15 @@
         <f t="shared" si="5"/>
         <v>california int,</v>
       </c>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P7" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q7" t="str">
+        <f t="shared" si="6"/>
+        <v>family_other INT,</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>5</v>
       </c>
@@ -1062,8 +1119,15 @@
         <f t="shared" si="5"/>
         <v>colorado int,</v>
       </c>
-    </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P8" t="s">
+        <v>20</v>
+      </c>
+      <c r="Q8" t="str">
+        <f t="shared" si="6"/>
+        <v>job_new INT,</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>6</v>
       </c>
@@ -1092,8 +1156,15 @@
         <f t="shared" si="5"/>
         <v>connecticut int,</v>
       </c>
-    </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P9" t="s">
+        <v>21</v>
+      </c>
+      <c r="Q9" t="str">
+        <f t="shared" si="6"/>
+        <v>job_seeking INT,</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>7</v>
       </c>
@@ -1122,8 +1193,15 @@
         <f t="shared" si="5"/>
         <v>delaware int,</v>
       </c>
-    </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P10" t="s">
+        <v>22</v>
+      </c>
+      <c r="Q10" t="str">
+        <f t="shared" si="6"/>
+        <v>job_better_commute INT,</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>8</v>
       </c>
@@ -1152,8 +1230,15 @@
         <f t="shared" si="5"/>
         <v>district_of_columbia int,</v>
       </c>
-    </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P11" t="s">
+        <v>23</v>
+      </c>
+      <c r="Q11" t="str">
+        <f t="shared" si="6"/>
+        <v>job_retired INT,</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>9</v>
       </c>
@@ -1182,8 +1267,15 @@
         <f t="shared" si="5"/>
         <v>florida int,</v>
       </c>
-    </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P12" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" t="str">
+        <f t="shared" si="6"/>
+        <v>job_other INT,</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>72</v>
       </c>
@@ -1205,8 +1297,15 @@
         <f t="shared" si="5"/>
         <v>georgia int,</v>
       </c>
-    </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P13" t="s">
+        <v>25</v>
+      </c>
+      <c r="Q13" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_ownership INT,</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>10</v>
       </c>
@@ -1228,8 +1327,15 @@
         <f t="shared" si="5"/>
         <v>hawaii int,</v>
       </c>
-    </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P14" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q14" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_upsize INT,</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>11</v>
       </c>
@@ -1251,8 +1357,15 @@
         <f t="shared" si="5"/>
         <v>idaho int,</v>
       </c>
-    </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P15" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q15" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_better_neighborhood INT,</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>12</v>
       </c>
@@ -1274,8 +1387,15 @@
         <f t="shared" si="5"/>
         <v>illinois int,</v>
       </c>
-    </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P16" t="s">
+        <v>28</v>
+      </c>
+      <c r="Q16" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_cheaper INT,</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>13</v>
       </c>
@@ -1297,8 +1417,15 @@
         <f t="shared" si="5"/>
         <v>indiana int,</v>
       </c>
-    </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P17" t="s">
+        <v>29</v>
+      </c>
+      <c r="Q17" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_eviction INT,</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>14</v>
       </c>
@@ -1320,8 +1447,15 @@
         <f t="shared" si="5"/>
         <v>iowa int,</v>
       </c>
-    </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P18" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_other INT,</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
         <v>15</v>
       </c>
@@ -1343,8 +1477,15 @@
         <f t="shared" si="5"/>
         <v>kansas int,</v>
       </c>
-    </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P19" t="s">
+        <v>31</v>
+      </c>
+      <c r="Q19" t="str">
+        <f t="shared" si="6"/>
+        <v>other_relationship INT,</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
         <v>16</v>
       </c>
@@ -1366,8 +1507,15 @@
         <f t="shared" si="5"/>
         <v>kentucky int,</v>
       </c>
-    </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P20" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q20" t="str">
+        <f t="shared" si="6"/>
+        <v>other_college INT,</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D21" t="s">
         <v>34</v>
       </c>
@@ -1382,8 +1530,15 @@
         <f t="shared" si="5"/>
         <v>louisiana int,</v>
       </c>
-    </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P21" t="s">
+        <v>33</v>
+      </c>
+      <c r="Q21" t="str">
+        <f t="shared" si="6"/>
+        <v>other_climate INT,</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>35</v>
       </c>
@@ -1398,8 +1553,15 @@
         <f t="shared" si="5"/>
         <v>maine int,</v>
       </c>
-    </row>
-    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P22" t="s">
+        <v>34</v>
+      </c>
+      <c r="Q22" t="str">
+        <f t="shared" si="6"/>
+        <v>other_health INT,</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D23" t="s">
         <v>36</v>
       </c>
@@ -1414,8 +1576,15 @@
         <f t="shared" si="5"/>
         <v>maryland int,</v>
       </c>
-    </row>
-    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P23" t="s">
+        <v>35</v>
+      </c>
+      <c r="Q23" t="str">
+        <f t="shared" si="6"/>
+        <v>other_natural_disaster INT,</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D24" t="s">
         <v>10</v>
       </c>
@@ -1430,8 +1599,15 @@
         <f t="shared" si="5"/>
         <v>massachusetts int,</v>
       </c>
-    </row>
-    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P24" t="s">
+        <v>36</v>
+      </c>
+      <c r="Q24" t="str">
+        <f t="shared" si="6"/>
+        <v>other_other INT,</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D25" t="s">
         <v>37</v>
       </c>
@@ -1446,8 +1622,15 @@
         <f t="shared" si="5"/>
         <v>michigan int,</v>
       </c>
-    </row>
-    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P25" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q25" t="str">
+        <f t="shared" si="6"/>
+        <v>movers_total_per REAL,</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D26" t="s">
         <v>38</v>
       </c>
@@ -1462,8 +1645,15 @@
         <f t="shared" si="5"/>
         <v>minnesota int,</v>
       </c>
-    </row>
-    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P26" t="s">
+        <v>37</v>
+      </c>
+      <c r="Q26" t="str">
+        <f t="shared" si="6"/>
+        <v>family_marital_status_change_per REAL,</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D27" t="s">
         <v>39</v>
       </c>
@@ -1478,8 +1668,15 @@
         <f t="shared" si="5"/>
         <v>mississippi int,</v>
       </c>
-    </row>
-    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P27" t="s">
+        <v>38</v>
+      </c>
+      <c r="Q27" t="str">
+        <f t="shared" si="6"/>
+        <v>family_establish_own_household_per REAL,</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D28" t="s">
         <v>40</v>
       </c>
@@ -1494,8 +1691,15 @@
         <f t="shared" si="5"/>
         <v>missouri int,</v>
       </c>
-    </row>
-    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P28" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q28" t="str">
+        <f t="shared" si="6"/>
+        <v>family_other_per REAL,</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D29" t="s">
         <v>41</v>
       </c>
@@ -1510,8 +1714,15 @@
         <f t="shared" si="5"/>
         <v>montana int,</v>
       </c>
-    </row>
-    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P29" t="s">
+        <v>131</v>
+      </c>
+      <c r="Q29" t="str">
+        <f t="shared" si="6"/>
+        <v>family_comb_per REAL,</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D30" t="s">
         <v>42</v>
       </c>
@@ -1526,8 +1737,15 @@
         <f t="shared" si="5"/>
         <v>nebraska int,</v>
       </c>
-    </row>
-    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P30" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q30" t="str">
+        <f t="shared" si="6"/>
+        <v>job_new_per REAL,</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D31" t="s">
         <v>43</v>
       </c>
@@ -1542,8 +1760,15 @@
         <f t="shared" si="5"/>
         <v>nevada int,</v>
       </c>
-    </row>
-    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="P31" t="s">
+        <v>41</v>
+      </c>
+      <c r="Q31" t="str">
+        <f t="shared" si="6"/>
+        <v>job_seeking_per REAL,</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.25">
       <c r="D32" t="s">
         <v>44</v>
       </c>
@@ -1558,8 +1783,15 @@
         <f t="shared" si="5"/>
         <v>new_hampshire int,</v>
       </c>
-    </row>
-    <row r="33" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P32" t="s">
+        <v>42</v>
+      </c>
+      <c r="Q32" t="str">
+        <f t="shared" si="6"/>
+        <v>job_better_commute_per REAL,</v>
+      </c>
+    </row>
+    <row r="33" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D33" t="s">
         <v>45</v>
       </c>
@@ -1574,8 +1806,15 @@
         <f t="shared" si="5"/>
         <v>new_jersey int,</v>
       </c>
-    </row>
-    <row r="34" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P33" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q33" t="str">
+        <f t="shared" si="6"/>
+        <v>job_retired_per REAL,</v>
+      </c>
+    </row>
+    <row r="34" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D34" t="s">
         <v>46</v>
       </c>
@@ -1590,8 +1829,15 @@
         <f t="shared" si="5"/>
         <v>new_mexico int,</v>
       </c>
-    </row>
-    <row r="35" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P34" t="s">
+        <v>132</v>
+      </c>
+      <c r="Q34" t="str">
+        <f t="shared" si="6"/>
+        <v>Job_comb_per REAL,</v>
+      </c>
+    </row>
+    <row r="35" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D35" t="s">
         <v>47</v>
       </c>
@@ -1606,8 +1852,15 @@
         <f t="shared" si="5"/>
         <v>new_york int,</v>
       </c>
-    </row>
-    <row r="36" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P35" t="s">
+        <v>44</v>
+      </c>
+      <c r="Q35" t="str">
+        <f t="shared" si="6"/>
+        <v>job_other_per REAL,</v>
+      </c>
+    </row>
+    <row r="36" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D36" t="s">
         <v>48</v>
       </c>
@@ -1622,8 +1875,15 @@
         <f t="shared" si="5"/>
         <v>north_carolina int,</v>
       </c>
-    </row>
-    <row r="37" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P36" t="s">
+        <v>45</v>
+      </c>
+      <c r="Q36" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_ownership_per REAL,</v>
+      </c>
+    </row>
+    <row r="37" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D37" t="s">
         <v>49</v>
       </c>
@@ -1638,8 +1898,15 @@
         <f t="shared" si="5"/>
         <v>north_dakota int,</v>
       </c>
-    </row>
-    <row r="38" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P37" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q37" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_upsize_per REAL,</v>
+      </c>
+    </row>
+    <row r="38" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D38" t="s">
         <v>50</v>
       </c>
@@ -1654,8 +1921,15 @@
         <f t="shared" si="5"/>
         <v>ohio int,</v>
       </c>
-    </row>
-    <row r="39" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P38" t="s">
+        <v>47</v>
+      </c>
+      <c r="Q38" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_better_neighborhood_per REAL,</v>
+      </c>
+    </row>
+    <row r="39" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D39" t="s">
         <v>51</v>
       </c>
@@ -1670,8 +1944,15 @@
         <f t="shared" si="5"/>
         <v>oklahoma int,</v>
       </c>
-    </row>
-    <row r="40" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P39" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q39" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_cheaper_per REAL,</v>
+      </c>
+    </row>
+    <row r="40" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D40" t="s">
         <v>52</v>
       </c>
@@ -1686,8 +1967,15 @@
         <f t="shared" si="5"/>
         <v>oregon int,</v>
       </c>
-    </row>
-    <row r="41" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P40" t="s">
+        <v>49</v>
+      </c>
+      <c r="Q40" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_eviction_per REAL,</v>
+      </c>
+    </row>
+    <row r="41" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D41" t="s">
         <v>53</v>
       </c>
@@ -1702,8 +1990,15 @@
         <f t="shared" si="5"/>
         <v>pennsylvania int,</v>
       </c>
-    </row>
-    <row r="42" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P41" t="s">
+        <v>50</v>
+      </c>
+      <c r="Q41" t="str">
+        <f t="shared" si="6"/>
+        <v>housing_other_per REAL,</v>
+      </c>
+    </row>
+    <row r="42" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D42" t="s">
         <v>54</v>
       </c>
@@ -1718,8 +2013,15 @@
         <f t="shared" si="5"/>
         <v>puerto_rico int,</v>
       </c>
-    </row>
-    <row r="43" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P42" t="s">
+        <v>51</v>
+      </c>
+      <c r="Q42" t="str">
+        <f t="shared" si="6"/>
+        <v>other_relationship_per REAL,</v>
+      </c>
+    </row>
+    <row r="43" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D43" t="s">
         <v>55</v>
       </c>
@@ -1734,8 +2036,15 @@
         <f t="shared" si="5"/>
         <v>rhode_island int,</v>
       </c>
-    </row>
-    <row r="44" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P43" t="s">
+        <v>52</v>
+      </c>
+      <c r="Q43" t="str">
+        <f t="shared" si="6"/>
+        <v>other_college_per REAL,</v>
+      </c>
+    </row>
+    <row r="44" spans="4:17" x14ac:dyDescent="0.25">
       <c r="D44" t="s">
         <v>56</v>
       </c>
@@ -1750,8 +2059,15 @@
         <f t="shared" si="5"/>
         <v>south_carolina int,</v>
       </c>
-    </row>
-    <row r="45" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P44" t="s">
+        <v>53</v>
+      </c>
+      <c r="Q44" t="str">
+        <f t="shared" si="6"/>
+        <v>other_climate_per REAL,</v>
+      </c>
+    </row>
+    <row r="45" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M45" t="s">
         <v>126</v>
       </c>
@@ -1759,8 +2075,15 @@
         <f t="shared" si="5"/>
         <v>south_dakota int,</v>
       </c>
-    </row>
-    <row r="46" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P45" t="s">
+        <v>54</v>
+      </c>
+      <c r="Q45" t="str">
+        <f t="shared" si="6"/>
+        <v>other_health_per REAL,</v>
+      </c>
+    </row>
+    <row r="46" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M46" t="s">
         <v>109</v>
       </c>
@@ -1768,8 +2091,15 @@
         <f t="shared" si="5"/>
         <v>tennessee int,</v>
       </c>
-    </row>
-    <row r="47" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P46" t="s">
+        <v>55</v>
+      </c>
+      <c r="Q46" t="str">
+        <f t="shared" si="6"/>
+        <v>other_natural_disaster_per REAL,</v>
+      </c>
+    </row>
+    <row r="47" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M47" t="s">
         <v>110</v>
       </c>
@@ -1777,14 +2107,25 @@
         <f t="shared" si="5"/>
         <v>texas int,</v>
       </c>
-    </row>
-    <row r="48" spans="4:14" x14ac:dyDescent="0.25">
+      <c r="P47" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q47" t="str">
+        <f t="shared" si="6"/>
+        <v>other_other_per REAL,</v>
+      </c>
+    </row>
+    <row r="48" spans="4:17" x14ac:dyDescent="0.25">
       <c r="M48" t="s">
         <v>111</v>
       </c>
       <c r="N48" t="str">
         <f t="shared" si="5"/>
         <v>utah int,</v>
+      </c>
+      <c r="Q48" t="str">
+        <f t="shared" si="6"/>
+        <v xml:space="preserve"> INT,</v>
       </c>
     </row>
     <row r="49" spans="13:14" x14ac:dyDescent="0.25">
